--- a/public/Logbook.template.xlsx
+++ b/public/Logbook.template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Graticule Codes" sheetId="4" r:id="rId3"/>
     <sheet name="Fishery Codes" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="587">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Conditions</t>
   </si>
   <si>
-    <t>Moon</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
@@ -1775,6 +1772,18 @@
   </si>
   <si>
     <t>Lombok Strait large pelagic</t>
+  </si>
+  <si>
+    <t>51a</t>
+  </si>
+  <si>
+    <t>51b</t>
+  </si>
+  <si>
+    <t>52a</t>
+  </si>
+  <si>
+    <t>52b</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2046,6 +2055,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -2072,7 +2109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2091,7 +2128,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2161,9 +2197,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2174,6 +2207,15 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2527,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2542,40 +2584,39 @@
     <col min="8" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="16" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="19" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="2"/>
+    <col min="18" max="18" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" ht="25" thickTop="1" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C1" s="27"/>
+        <v>571</v>
+      </c>
+      <c r="C1" s="26"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="G1" s="27"/>
+        <v>576</v>
+      </c>
+      <c r="G1" s="26"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="K1" s="27"/>
+        <v>572</v>
+      </c>
+      <c r="K1" s="26"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="17" thickTop="1" thickBot="1">
+        <v>573</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2591,10 +2632,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2607,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -2636,697 +2676,663 @@
       <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="12">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A5" s="12" t="str">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A5" s="11" t="str">
         <f t="shared" ref="A5:A33" si="0">IF(A4&lt;&gt;"",IF(A4+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A4+1,""),"")</f>
         <v/>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A6" s="12" t="str">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A7" s="12" t="str">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="1"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A8" s="12" t="str">
+      <c r="P7" s="1"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A9" s="12" t="str">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A10" s="12" t="str">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A11" s="12" t="str">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A12" s="12" t="str">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A13" s="12" t="str">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="12" t="str">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A15" s="12" t="str">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="17" thickTop="1" thickBot="1">
-      <c r="A16" s="12" t="str">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A17" s="12" t="str">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A18" s="12" t="str">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A19" s="12" t="str">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A20" s="12" t="str">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A21" s="12" t="str">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A22" s="12" t="str">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A23" s="12" t="str">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A24" s="12" t="str">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A25" s="12" t="str">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A26" s="12" t="str">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A27" s="12" t="str">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A27" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A28" s="12" t="str">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A28" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A29" s="12" t="str">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A29" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A30" s="12" t="str">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A30" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A31" s="12" t="str">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A31" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A32" s="12" t="str">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A32" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A33" s="12" t="str">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A33" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A34" s="12" t="str">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A34" s="11" t="str">
         <f>IF(A33&lt;&gt;"",IF(A33+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A33+1,""),"")</f>
         <v/>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="25"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" thickTop="1">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="16" thickTop="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3342,12 +3348,11 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataConsolidate/>
-  <dataValidations count="12">
+  <dataValidations count="11">
     <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a time._x000d__x000d_Hint: Enter a colon ':' after the hour value to create a time. " sqref="B4:B34">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
@@ -3373,9 +3378,6 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="O4:O34">
       <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the mood phase. Permitted values are:_x000d__x000d_1: Dark moon_x000d_2: Waxing moon_x000d_3: Ful moon_x000d_4: Dark moon" sqref="P4:P34">
-      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a time greater than the departure time._x000d__x000d_Hint: Enter a colon ':' after the hour value to create a time." sqref="C4:C34">
       <formula1>B4</formula1>
@@ -3441,2499 +3443,2499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="13.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="F3" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="29" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="29" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="29" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="B9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="29" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="29" t="s">
+      <c r="B10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
+      <c r="B12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="29" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="28" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="29" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="29" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="29" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="29" t="s">
+      <c r="B16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="29" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
+      <c r="B18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="29" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="29" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="D20" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="F20" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="29" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="B21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="29" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="29" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="29" t="s">
+      <c r="B23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="29" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="29" t="s">
+      <c r="B24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="F24" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
+      <c r="B25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="29" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="29" t="s">
+      <c r="B26" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="29" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="B27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="29" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="29" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="29" t="s">
+      <c r="B29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="29" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" s="29" t="s">
+      <c r="E30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
+      <c r="B31" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="29" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="28" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="29" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33" s="28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="D33" s="29" t="s">
+      <c r="E33" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="29" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="29" t="s">
+      <c r="B34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="29" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="29" t="s">
+      <c r="B35" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="29" t="s">
+      <c r="E35" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="29" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
+      <c r="B36" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="29" t="s">
+      <c r="E36" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="F36" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="29" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="E37" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="29" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
+      <c r="B38" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="E38" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="D39" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="D39" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="F40" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="29" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="29" t="s">
+      <c r="B41" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="E41" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="29" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="28" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="29" t="s">
+      <c r="B42" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="29" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="29" t="s">
+      <c r="B43" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="E43" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="F43" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F43" s="29" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="28" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="29" t="s">
+      <c r="B44" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="E44" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="F44" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="29" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="29" t="s">
+      <c r="B45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="F45" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="29" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="29" t="s">
+      <c r="B46" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="E46" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="F46" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="29" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="28" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
+      <c r="B47" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="29" t="s">
+      <c r="E47" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="F47" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F47" s="29" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="28" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="29" t="s">
+      <c r="B48" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="F48" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="29" t="s">
+      <c r="B49" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="E49" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="F49" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F49" s="29" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="28" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="29" t="s">
+      <c r="B50" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="F50" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F50" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="29" t="s">
+      <c r="B51" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="F51" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="29" t="s">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="29" t="s">
+      <c r="B52" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="F52" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F52" s="29" t="s">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="29" t="s">
+      <c r="B53" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="29" t="s">
+      <c r="E53" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="F53" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="D54" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="D54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="F54" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="29" t="s">
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="28" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="29" t="s">
+      <c r="B55" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="E55" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F55" s="29" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="29" t="s">
+      <c r="B56" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="29" t="s">
+      <c r="E56" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F56" s="29" t="s">
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="29" t="s">
+      <c r="B57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="F57" s="29" t="s">
+    </row>
+    <row r="58" spans="1:6">
+      <c r="D58" s="28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="D58" s="29" t="s">
+      <c r="E58" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="29" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="28" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="29" t="s">
+      <c r="B59" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="E59" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="F59" s="29" t="s">
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="28" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="29" t="s">
+      <c r="B60" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="E60" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="F60" s="29" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="28" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="29" t="s">
+      <c r="B61" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D61" s="29" t="s">
+      <c r="E61" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="F61" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="F61" s="29" t="s">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="28" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="29" t="s">
+      <c r="B62" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D62" s="29" t="s">
+      <c r="E62" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="29" t="s">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63" s="28" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="D63" s="29" t="s">
+      <c r="E63" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="F63" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="F63" s="29" t="s">
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="28" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="29" t="s">
+      <c r="B64" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="F64" s="29" t="s">
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="28" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="29" t="s">
+      <c r="B65" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D65" s="29" t="s">
+      <c r="E65" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="F65" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F65" s="29" t="s">
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="28" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="29" t="s">
+      <c r="B66" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B66" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D66" s="29" t="s">
+      <c r="E66" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="F66" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="F66" s="29" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="28" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="29" t="s">
+      <c r="B67" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="F67" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="F67" s="29" t="s">
+    </row>
+    <row r="68" spans="1:6">
+      <c r="D68" s="28" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="D68" s="29" t="s">
+      <c r="E68" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="F68" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="F68" s="29" t="s">
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="28" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="29" t="s">
+      <c r="B69" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B69" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D69" s="29" t="s">
+      <c r="E69" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="F69" s="29" t="s">
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="29" t="s">
+      <c r="B70" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B70" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="29" t="s">
+      <c r="E70" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="F70" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F70" s="29" t="s">
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="28" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="29" t="s">
+      <c r="B71" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="B71" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="29" t="s">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="28" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="29" t="s">
+      <c r="B72" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="B72" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="E72" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="F72" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="F72" s="29" t="s">
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="28" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="29" t="s">
+      <c r="B73" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D73" s="29" t="s">
+      <c r="E73" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="F73" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="29" t="s">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="28" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="29" t="s">
+      <c r="B74" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="B74" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="29" t="s">
+      <c r="E74" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="F74" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="F74" s="29" t="s">
+    </row>
+    <row r="75" spans="1:6">
+      <c r="D75" s="28" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="D75" s="29" t="s">
+      <c r="E75" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="F75" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F75" s="29" t="s">
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="28" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="29" t="s">
+      <c r="B76" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B76" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="29" t="s">
+      <c r="D76" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="E76" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="F76" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F76" s="29" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="28" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="29" t="s">
+      <c r="B77" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B77" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" s="29" t="s">
+      <c r="E77" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="F77" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F77" s="29" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="28" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="29" t="s">
+      <c r="B78" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B78" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D78" s="29" t="s">
+      <c r="E78" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="F78" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="F78" s="29" t="s">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="29" t="s">
+      <c r="B79" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D79" s="29" t="s">
+      <c r="E79" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="F79" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="F79" s="29" t="s">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="28" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="29" t="s">
+      <c r="B80" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="E80" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="F80" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="F80" s="29" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="28" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="29" t="s">
+      <c r="B81" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="E81" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="C81" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="29" t="s">
+      <c r="D82" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="B82" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="D82" s="29" t="s">
+      <c r="E82" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="F82" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="F82" s="29" t="s">
+    </row>
+    <row r="83" spans="1:6">
+      <c r="D83" s="28" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="D83" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="F83" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="29" t="s">
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="28" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="E84" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="F84" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F84" s="29" t="s">
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="28" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="29" t="s">
+      <c r="B85" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D85" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="D85" s="29" t="s">
+      <c r="E85" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="F85" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="F85" s="29" t="s">
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="28" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="29" t="s">
+      <c r="B86" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="29" t="s">
+      <c r="D86" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="E86" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="F86" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="29" t="s">
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="28" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="29" t="s">
+      <c r="B87" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="B87" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="D87" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="F87" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="F87" s="29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="29" t="s">
+      <c r="B88" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="B88" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="E88" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="F88" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="F88" s="29" t="s">
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="28" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="29" t="s">
+      <c r="B89" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="D89" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="E89" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="F89" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="F89" s="29" t="s">
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="28" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="29" t="s">
+      <c r="B90" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="E90" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="F90" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="F90" s="29" t="s">
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="28" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="29" t="s">
+      <c r="B91" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="C91" s="29" t="s">
+      <c r="D91" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="E91" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="F91" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="F91" s="29" t="s">
+    </row>
+    <row r="92" spans="1:6">
+      <c r="D92" s="28" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="D92" s="29" t="s">
+      <c r="E92" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="F92" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="F92" s="29" t="s">
+    </row>
+    <row r="93" spans="1:6">
+      <c r="D93" s="28" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="D93" s="29" t="s">
+      <c r="E93" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="F93" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="F93" s="29" t="s">
+    </row>
+    <row r="94" spans="1:6">
+      <c r="D94" s="28" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="D94" s="29" t="s">
+      <c r="E94" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="F94" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="F94" s="29" t="s">
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="28" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="D95" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="E95" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="F95" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="F95" s="29" t="s">
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="28" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="29" t="s">
+      <c r="B96" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="D96" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="E96" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="F96" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="F96" s="29" t="s">
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" s="28" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="29" t="s">
+    <row r="98" spans="1:6">
+      <c r="A98" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="B98" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B97" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="C98" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="28" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="29" t="s">
+      <c r="B99" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="B98" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C98" s="29" t="s">
+      <c r="D99" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E98" s="29" t="s">
+      <c r="E99" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="F98" s="29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E99" s="29" t="s">
+    </row>
+    <row r="100" spans="1:6">
+      <c r="D100" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="F99" s="29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="D100" s="29" t="s">
+      <c r="E100" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="F100" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="F100" s="29" t="s">
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="28" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="29" t="s">
+      <c r="B101" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="B101" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C101" s="29" t="s">
+      <c r="D101" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="E101" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="B102" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="F102" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="F101" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="29" t="s">
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="D106" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="D111" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="D117" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="D120" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="D121" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="D127" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="D130" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="D132" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="D133" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="D134" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="D136" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="D137" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="D138" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D139" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="B102" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="D106" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="F107" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D110" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="D111" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="F114" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="F115" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="D117" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="D120" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="D121" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="F125" s="29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="D127" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="F128" s="29" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="F129" s="29" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="D130" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="F130" s="29" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>550</v>
-      </c>
-      <c r="F131" s="29" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="D132" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="D133" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F133" s="29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="D134" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>561</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="D135" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="F135" s="29" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="D136" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="F136" s="29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="D137" s="29" t="s">
+      <c r="E139" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="F139" s="28" t="s">
         <v>569</v>
-      </c>
-      <c r="F137" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="D138" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="F138" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="D139" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5950,31 +5952,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
-    <col min="2" max="16384" width="10.83203125" style="31"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="2" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>576</v>
+      <c r="A1" s="31" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="33">
-        <v>1234</v>
+      <c r="A2" s="36">
+        <v>51.1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="33">
-        <v>2345</v>
+      <c r="A3" s="37">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="37">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="37">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="37">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="37">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="37">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="37">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="37" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="37" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="37">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="37">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="37">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="37">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="37">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="37" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5998,31 +6075,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="31"/>
+    <col min="1" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>578</v>
+      <c r="A1" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/public/Logbook.template.xlsx
+++ b/public/Logbook.template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="589">
   <si>
     <t>Date</t>
   </si>
@@ -1784,6 +1784,12 @@
   </si>
   <si>
     <t>52b</t>
+  </si>
+  <si>
+    <t>Abort (Y/N)</t>
+  </si>
+  <si>
+    <t>Ice (kg)</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1800,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1875,6 +1881,11 @@
       <color theme="1"/>
       <name val="Optima"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Optima"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1890,7 +1901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2083,6 +2094,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -2109,7 +2285,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2131,13 +2307,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2151,10 +2320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2163,10 +2328,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2197,10 +2358,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2215,7 +2372,79 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2569,54 +2798,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="18" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="2"/>
+    <col min="20" max="20" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:20" ht="25" thickTop="1" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="O1" s="56"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2632,707 +2867,777 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="11">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A5" s="11" t="str">
-        <f t="shared" ref="A5:A33" si="0">IF(A4&lt;&gt;"",IF(A4+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A4+1,""),"")</f>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A5" s="33" t="str">
+        <f>IF(A4&lt;&gt;"",IF(A4+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A4+1,""),"")</f>
         <v/>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A6" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A6" s="33" t="str">
+        <f>IF(A5&lt;&gt;"",IF(A5+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A5+1,""),"")</f>
         <v/>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A7" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A7" s="33" t="str">
+        <f>IF(A6&lt;&gt;"",IF(A6+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A6+1,""),"")</f>
         <v/>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A8" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="1"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A8" s="33" t="str">
+        <f>IF(A7&lt;&gt;"",IF(A7+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A7+1,""),"")</f>
         <v/>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A9" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A9" s="33" t="str">
+        <f>IF(A8&lt;&gt;"",IF(A8+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A8+1,""),"")</f>
         <v/>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A10" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A10" s="33" t="str">
+        <f>IF(A9&lt;&gt;"",IF(A9+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A9+1,""),"")</f>
         <v/>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A11" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A11" s="33" t="str">
+        <f>IF(A10&lt;&gt;"",IF(A10+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A10+1,""),"")</f>
         <v/>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A12" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A12" s="33" t="str">
+        <f>IF(A11&lt;&gt;"",IF(A11+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A11+1,""),"")</f>
         <v/>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A13" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A13" s="33" t="str">
+        <f>IF(A12&lt;&gt;"",IF(A12+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A12+1,""),"")</f>
         <v/>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A14" s="33" t="str">
+        <f>IF(A13&lt;&gt;"",IF(A13+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A13+1,""),"")</f>
         <v/>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A15" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A15" s="33" t="str">
+        <f>IF(A14&lt;&gt;"",IF(A14+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A14+1,""),"")</f>
         <v/>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="17" thickTop="1" thickBot="1">
-      <c r="A16" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickTop="1" thickBot="1">
+      <c r="A16" s="33" t="str">
+        <f>IF(A15&lt;&gt;"",IF(A15+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A15+1,""),"")</f>
         <v/>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A17" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A17" s="33" t="str">
+        <f>IF(A16&lt;&gt;"",IF(A16+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A16+1,""),"")</f>
         <v/>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A18" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A18" s="33" t="str">
+        <f>IF(A17&lt;&gt;"",IF(A17+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A17+1,""),"")</f>
         <v/>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A19" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="33" t="str">
+        <f>IF(A18&lt;&gt;"",IF(A18+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A18+1,""),"")</f>
         <v/>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A20" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="33" t="str">
+        <f>IF(A19&lt;&gt;"",IF(A19+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A19+1,""),"")</f>
         <v/>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A21" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="33" t="str">
+        <f>IF(A20&lt;&gt;"",IF(A20+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A20+1,""),"")</f>
         <v/>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A22" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A22" s="33" t="str">
+        <f>IF(A21&lt;&gt;"",IF(A21+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A21+1,""),"")</f>
         <v/>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A23" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A23" s="33" t="str">
+        <f>IF(A22&lt;&gt;"",IF(A22+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A22+1,""),"")</f>
         <v/>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A24" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A24" s="33" t="str">
+        <f>IF(A23&lt;&gt;"",IF(A23+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A23+1,""),"")</f>
         <v/>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A25" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A25" s="33" t="str">
+        <f>IF(A24&lt;&gt;"",IF(A24+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A24+1,""),"")</f>
         <v/>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A26" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A26" s="33" t="str">
+        <f>IF(A25&lt;&gt;"",IF(A25+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A25+1,""),"")</f>
         <v/>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A27" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A27" s="33" t="str">
+        <f>IF(A26&lt;&gt;"",IF(A26+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A26+1,""),"")</f>
         <v/>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A28" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A28" s="33" t="str">
+        <f>IF(A27&lt;&gt;"",IF(A27+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A27+1,""),"")</f>
         <v/>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A29" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A29" s="33" t="str">
+        <f>IF(A28&lt;&gt;"",IF(A28+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A28+1,""),"")</f>
         <v/>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A30" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A30" s="33" t="str">
+        <f>IF(A29&lt;&gt;"",IF(A29+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A29+1,""),"")</f>
         <v/>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A31" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A31" s="33" t="str">
+        <f>IF(A30&lt;&gt;"",IF(A30+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A30+1,""),"")</f>
         <v/>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A32" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A32" s="33" t="str">
+        <f>IF(A31&lt;&gt;"",IF(A31+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A31+1,""),"")</f>
         <v/>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A33" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A33" s="33" t="str">
+        <f>IF(A32&lt;&gt;"",IF(A32+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A32+1,""),"")</f>
         <v/>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="17" thickTop="1" thickBot="1">
-      <c r="A34" s="11" t="str">
+      <c r="B33" s="39"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" ht="17" thickTop="1" thickBot="1">
+      <c r="A34" s="33" t="str">
         <f>IF(A33&lt;&gt;"",IF(A33+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A33+1,""),"")</f>
         <v/>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="16" thickTop="1">
+      <c r="B34" s="40"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" ht="16" thickTop="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3348,11 +3653,13 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataConsolidate/>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a time._x000d__x000d_Hint: Enter a colon ':' after the hour value to create a time. " sqref="B4:B34">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
@@ -3361,38 +3668,45 @@
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="You must enter the number of litres of fuel used during thsi trip (0-100)" sqref="G4:G34">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="You must enter the number of litres of fuel used during thsi trip (0-100)" sqref="H4:H34">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please enter &quot;Y&quot; for yes, or &quot;N&quot; for no." sqref="H4:J34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please enter &quot;Y&quot; for yes, or &quot;N&quot; for no." sqref="I4:K34">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N34">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P34">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:M34">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:O34">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="O4:O34">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="Q4:Q34">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
     <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a time greater than the departure time._x000d__x000d_Hint: Enter a colon ':' after the hour value to create a time." sqref="C4:C34">
       <formula1>B4</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="You must enter the month number (1-12)" sqref="K1">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="You must enter the month number (1-12)" sqref="K1:L1">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the number of fishers on the vessel (1-20)." sqref="F4:F34">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the number of fishers on the vessel (1-20)." sqref="G4:G34">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>1</formula1>
       <formula2>99999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter 'Y' if the trip was aborted (e.g., due to poor weather or broken engine). Enter 'N' if the trip was not aborted." sqref="E4:E34">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="L4:L34">
+      <formula1>0</formula1>
+      <formula2>99</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3404,13 +3718,13 @@
           <x14:formula1>
             <xm:f>'Species Codes'!$A$2:$A$139</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K34</xm:sqref>
+          <xm:sqref>M4:M34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid graticule ID code. Please check the &quot;Graticule Codes&quot; tab.">
           <x14:formula1>
             <xm:f>'Graticule Codes'!$A$2:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E34</xm:sqref>
+          <xm:sqref>F4:F34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fishery ID code. Please check the &quot;Fishery Codes&quot; tab.">
           <x14:formula1>
@@ -3422,7 +3736,7 @@
           <x14:formula1>
             <xm:f>'Graticule Codes'!$A$4:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3443,2498 +3757,2498 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="24" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="24" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="24" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="24" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="24" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="24" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="24" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="24" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="24" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="24" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="24" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="24" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="24" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="24" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="24" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="24" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="24" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="24" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="24" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="F85" s="28" t="s">
+      <c r="F85" s="24" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="24" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="24" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="24" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="24" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E91" s="28" t="s">
+      <c r="E91" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="24" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="24" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E93" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="24" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E94" s="28" t="s">
+      <c r="E94" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="24" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="D95" s="28" t="s">
+      <c r="D95" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="24" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="24" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="24" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E98" s="28" t="s">
+      <c r="E98" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="24" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="24" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B102" s="28" t="s">
+      <c r="B102" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="E102" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D103" s="28" t="s">
+      <c r="D103" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F103" s="28" t="s">
+      <c r="F103" s="24" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="F104" s="28" t="s">
+      <c r="F104" s="24" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="F105" s="28" t="s">
+      <c r="F105" s="24" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="24" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="E107" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="24" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D108" s="28" t="s">
+      <c r="D108" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="E108" s="28" t="s">
+      <c r="E108" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F108" s="24" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D109" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E109" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="24" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="E110" s="28" t="s">
+      <c r="E110" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="F110" s="28" t="s">
+      <c r="F110" s="24" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="F111" s="28" t="s">
+      <c r="F111" s="24" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="E112" s="28" t="s">
+      <c r="E112" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="24" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="E113" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="24" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D114" s="28" t="s">
+      <c r="D114" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="E114" s="28" t="s">
+      <c r="E114" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="24" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="24" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="E116" s="28" t="s">
+      <c r="E116" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="F116" s="28" t="s">
+      <c r="F116" s="24" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="F117" s="28" t="s">
+      <c r="F117" s="24" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="D118" s="28" t="s">
+      <c r="D118" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E118" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F118" s="28" t="s">
+      <c r="F118" s="24" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="D119" s="28" t="s">
+      <c r="D119" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F119" s="24" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F120" s="28" t="s">
+      <c r="F120" s="24" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="E121" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="24" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="D122" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="E122" s="28" t="s">
+      <c r="E122" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="F122" s="28" t="s">
+      <c r="F122" s="24" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="F123" s="28" t="s">
+      <c r="F123" s="24" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="24" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="B125" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F125" s="24" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="24" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="24" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="24" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B129" s="28" t="s">
+      <c r="B129" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F129" s="24" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F130" s="24" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E131" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="F131" s="28" t="s">
+      <c r="F131" s="24" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E132" s="28" t="s">
+      <c r="E132" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F132" s="24" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E133" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="24" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="E134" s="28" t="s">
+      <c r="E134" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="F134" s="28" t="s">
+      <c r="F134" s="24" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="B135" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="E135" s="28" t="s">
+      <c r="E135" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="24" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E136" s="28" t="s">
+      <c r="E136" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="24" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="D137" s="28" t="s">
+      <c r="D137" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="E137" s="28" t="s">
+      <c r="E137" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="24" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="E138" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="24" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="D139" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="E139" s="28" t="s">
+      <c r="E139" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="F139" s="28" t="s">
+      <c r="F139" s="24" t="s">
         <v>569</v>
       </c>
     </row>
@@ -5960,97 +6274,97 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
-    <col min="2" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="1" width="10.83203125" style="28"/>
+    <col min="2" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="36">
+      <c r="A2" s="31">
         <v>51.1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="37">
+      <c r="A3" s="32">
         <v>51.2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37">
+      <c r="A4" s="32">
         <v>51.3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37">
+      <c r="A5" s="32">
         <v>51.4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="37">
+      <c r="A6" s="32">
         <v>51.5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="37">
+      <c r="A7" s="32">
         <v>51.6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37">
+      <c r="A8" s="32">
         <v>51.7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="37">
+      <c r="A9" s="32">
         <v>51.8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="32" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="32" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="37">
+      <c r="A12" s="32">
         <v>52.1</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="37">
+      <c r="A13" s="32">
         <v>52.2</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="37">
+      <c r="A14" s="32">
         <v>52.3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37">
+      <c r="A15" s="32">
         <v>52.4</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="37">
+      <c r="A16" s="32">
         <v>52.5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="32" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6075,30 +6389,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>582</v>
       </c>
     </row>

--- a/public/Logbook.template.xlsx
+++ b/public/Logbook.template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="595">
   <si>
     <t>Date</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Conditions</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
@@ -1774,22 +1771,43 @@
     <t>Lombok Strait large pelagic</t>
   </si>
   <si>
-    <t>51a</t>
-  </si>
-  <si>
-    <t>51b</t>
-  </si>
-  <si>
-    <t>52a</t>
-  </si>
-  <si>
-    <t>52b</t>
-  </si>
-  <si>
     <t>Abort (Y/N)</t>
   </si>
   <si>
     <t>Ice (kg)</t>
+  </si>
+  <si>
+    <t>LOM-1</t>
+  </si>
+  <si>
+    <t>LOM-2</t>
+  </si>
+  <si>
+    <t>LOM-3</t>
+  </si>
+  <si>
+    <t>LOM-4</t>
+  </si>
+  <si>
+    <t>LOM-5</t>
+  </si>
+  <si>
+    <t>LOM-6</t>
+  </si>
+  <si>
+    <t>SUM-1</t>
+  </si>
+  <si>
+    <t>BAL-1</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>Wave</t>
   </si>
 </sst>
 </file>
@@ -2801,7 +2819,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2826,25 +2844,25 @@
     <row r="1" spans="1:20" ht="25" thickTop="1" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="53"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="52"/>
       <c r="M1" s="53"/>
       <c r="N1" s="51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O1" s="56"/>
       <c r="P1" s="54"/>
@@ -2884,13 +2902,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>4</v>
@@ -2905,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>8</v>
@@ -2920,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>12</v>
+        <v>594</v>
       </c>
       <c r="R3" s="1"/>
     </row>
@@ -2948,7 +2966,7 @@
     </row>
     <row r="5" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="33" t="str">
-        <f>IF(A4&lt;&gt;"",IF(A4+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A4+1,""),"")</f>
+        <f t="shared" ref="A5:A34" si="0">IF(A4&lt;&gt;"",IF(A4+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A4+1,""),"")</f>
         <v/>
       </c>
       <c r="B5" s="39"/>
@@ -2971,7 +2989,7 @@
     </row>
     <row r="6" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A6" s="33" t="str">
-        <f>IF(A5&lt;&gt;"",IF(A5+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A5+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B6" s="39"/>
@@ -2994,7 +3012,7 @@
     </row>
     <row r="7" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="33" t="str">
-        <f>IF(A6&lt;&gt;"",IF(A6+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A6+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B7" s="39"/>
@@ -3018,7 +3036,7 @@
     </row>
     <row r="8" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A8" s="33" t="str">
-        <f>IF(A7&lt;&gt;"",IF(A7+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A7+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B8" s="39"/>
@@ -3041,7 +3059,7 @@
     </row>
     <row r="9" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A9" s="33" t="str">
-        <f>IF(A8&lt;&gt;"",IF(A8+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A8+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B9" s="39"/>
@@ -3064,7 +3082,7 @@
     </row>
     <row r="10" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A10" s="33" t="str">
-        <f>IF(A9&lt;&gt;"",IF(A9+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A9+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B10" s="39"/>
@@ -3087,7 +3105,7 @@
     </row>
     <row r="11" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A11" s="33" t="str">
-        <f>IF(A10&lt;&gt;"",IF(A10+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A10+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="39"/>
@@ -3110,7 +3128,7 @@
     </row>
     <row r="12" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A12" s="33" t="str">
-        <f>IF(A11&lt;&gt;"",IF(A11+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A11+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B12" s="39"/>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="13" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A13" s="33" t="str">
-        <f>IF(A12&lt;&gt;"",IF(A12+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A12+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B13" s="39"/>
@@ -3156,7 +3174,7 @@
     </row>
     <row r="14" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A14" s="33" t="str">
-        <f>IF(A13&lt;&gt;"",IF(A13+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A13+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B14" s="39"/>
@@ -3179,7 +3197,7 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A15" s="33" t="str">
-        <f>IF(A14&lt;&gt;"",IF(A14+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A14+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="39"/>
@@ -3202,7 +3220,7 @@
     </row>
     <row r="16" spans="1:20" ht="17" thickTop="1" thickBot="1">
       <c r="A16" s="33" t="str">
-        <f>IF(A15&lt;&gt;"",IF(A15+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A15+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="39"/>
@@ -3225,7 +3243,7 @@
     </row>
     <row r="17" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A17" s="33" t="str">
-        <f>IF(A16&lt;&gt;"",IF(A16+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A16+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="39"/>
@@ -3248,7 +3266,7 @@
     </row>
     <row r="18" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A18" s="33" t="str">
-        <f>IF(A17&lt;&gt;"",IF(A17+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A17+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="39"/>
@@ -3271,7 +3289,7 @@
     </row>
     <row r="19" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A19" s="33" t="str">
-        <f>IF(A18&lt;&gt;"",IF(A18+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A18+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="39"/>
@@ -3294,7 +3312,7 @@
     </row>
     <row r="20" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A20" s="33" t="str">
-        <f>IF(A19&lt;&gt;"",IF(A19+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A19+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="39"/>
@@ -3317,7 +3335,7 @@
     </row>
     <row r="21" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A21" s="33" t="str">
-        <f>IF(A20&lt;&gt;"",IF(A20+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A20+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B21" s="39"/>
@@ -3340,7 +3358,7 @@
     </row>
     <row r="22" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A22" s="33" t="str">
-        <f>IF(A21&lt;&gt;"",IF(A21+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A21+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B22" s="39"/>
@@ -3363,7 +3381,7 @@
     </row>
     <row r="23" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A23" s="33" t="str">
-        <f>IF(A22&lt;&gt;"",IF(A22+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A22+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B23" s="39"/>
@@ -3386,7 +3404,7 @@
     </row>
     <row r="24" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A24" s="33" t="str">
-        <f>IF(A23&lt;&gt;"",IF(A23+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A23+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B24" s="39"/>
@@ -3409,7 +3427,7 @@
     </row>
     <row r="25" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A25" s="33" t="str">
-        <f>IF(A24&lt;&gt;"",IF(A24+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A24+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B25" s="39"/>
@@ -3432,7 +3450,7 @@
     </row>
     <row r="26" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="33" t="str">
-        <f>IF(A25&lt;&gt;"",IF(A25+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A25+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B26" s="39"/>
@@ -3455,7 +3473,7 @@
     </row>
     <row r="27" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A27" s="33" t="str">
-        <f>IF(A26&lt;&gt;"",IF(A26+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A26+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B27" s="39"/>
@@ -3478,7 +3496,7 @@
     </row>
     <row r="28" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A28" s="33" t="str">
-        <f>IF(A27&lt;&gt;"",IF(A27+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A27+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B28" s="39"/>
@@ -3501,7 +3519,7 @@
     </row>
     <row r="29" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A29" s="33" t="str">
-        <f>IF(A28&lt;&gt;"",IF(A28+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A28+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B29" s="39"/>
@@ -3524,7 +3542,7 @@
     </row>
     <row r="30" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A30" s="33" t="str">
-        <f>IF(A29&lt;&gt;"",IF(A29+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A29+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B30" s="39"/>
@@ -3547,7 +3565,7 @@
     </row>
     <row r="31" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A31" s="33" t="str">
-        <f>IF(A30&lt;&gt;"",IF(A30+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A30+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B31" s="39"/>
@@ -3570,7 +3588,7 @@
     </row>
     <row r="32" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="str">
-        <f>IF(A31&lt;&gt;"",IF(A31+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A31+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B32" s="39"/>
@@ -3593,7 +3611,7 @@
     </row>
     <row r="33" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A33" s="33" t="str">
-        <f>IF(A32&lt;&gt;"",IF(A32+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A32+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B33" s="39"/>
@@ -3616,7 +3634,7 @@
     </row>
     <row r="34" spans="1:18" ht="17" thickTop="1" thickBot="1">
       <c r="A34" s="33" t="str">
-        <f>IF(A33&lt;&gt;"",IF(A33+1&lt;=(DAY(DATE($O$1,$K$1+1,1)-1)),A33+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B34" s="40"/>
@@ -3722,7 +3740,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid graticule ID code. Please check the &quot;Graticule Codes&quot; tab.">
           <x14:formula1>
-            <xm:f>'Graticule Codes'!$A$2:$A$50</xm:f>
+            <xm:f>'Graticule Codes'!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F34</xm:sqref>
         </x14:dataValidation>
@@ -3768,2488 +3786,2488 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="F17" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="D20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="F24" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="E29" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="F29" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="F31" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="E32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="F32" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="F33" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="E34" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="F34" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="24" t="s">
+      <c r="E35" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="F35" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="F37" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="E38" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="D39" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="E40" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="F40" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="E41" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="F41" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>188</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="E43" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="F43" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="E44" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="F44" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="24" t="s">
+      <c r="D45" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="E45" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="F45" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="E46" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="F46" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="E47" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="F47" s="24" t="s">
         <v>212</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="F48" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="D49" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="E49" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="F49" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>225</v>
-      </c>
       <c r="F50" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="24" t="s">
+      <c r="D51" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="F51" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="24" t="s">
+      <c r="E52" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="F52" s="24" t="s">
         <v>233</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="24" t="s">
+      <c r="E53" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>237</v>
-      </c>
       <c r="F53" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="D54" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="F54" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="D55" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="E55" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="F55" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="E56" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="F56" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="24" t="s">
+      <c r="D57" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="E57" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="F57" s="24" t="s">
         <v>253</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="D58" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="F58" s="24" t="s">
         <v>256</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="D59" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="E59" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="F59" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B60" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="F60" s="24" t="s">
         <v>266</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="24" t="s">
+      <c r="E61" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="F61" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="E62" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="F62" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="24" t="s">
+      <c r="E64" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="F64" s="24" t="s">
         <v>281</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="24" t="s">
+      <c r="E65" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="F65" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="24" t="s">
+      <c r="E66" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="F66" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="E67" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="F67" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="D68" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="F68" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="24" t="s">
+      <c r="E69" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="F69" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="E70" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="F70" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="24" t="s">
+      <c r="E71" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="F71" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" s="24" t="s">
+      <c r="E72" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="F72" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D73" s="24" t="s">
+      <c r="E73" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="F73" s="24" t="s">
         <v>316</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D74" s="24" t="s">
+      <c r="E74" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="F74" s="24" t="s">
         <v>320</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="D75" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="F75" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="24" t="s">
+      <c r="D76" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="E76" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="F76" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D77" s="24" t="s">
+      <c r="E77" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="F77" s="24" t="s">
         <v>332</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D78" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D78" s="24" t="s">
+      <c r="E78" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="F78" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="B79" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="24" t="s">
+      <c r="E79" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="F79" s="24" t="s">
         <v>340</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="C80" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="D80" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="E80" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="F80" s="24" t="s">
         <v>346</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D81" s="24" t="s">
+      <c r="E81" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="F81" s="24" t="s">
         <v>350</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B82" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D82" s="24" t="s">
+      <c r="E82" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="F82" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="D83" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E83" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="F83" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="C84" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="D84" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="E84" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="F84" s="24" t="s">
         <v>363</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D85" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D85" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="F85" s="24" t="s">
         <v>367</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="24" t="s">
+      <c r="D86" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="E86" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" s="24" t="s">
+      <c r="E87" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="E87" s="24" t="s">
-        <v>376</v>
-      </c>
       <c r="F87" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="24" t="s">
+      <c r="D88" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="E88" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="F88" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B89" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="C89" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="D89" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="E89" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="F89" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="C90" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="D90" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="E90" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="F90" s="24" t="s">
         <v>392</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C91" s="24" t="s">
+      <c r="D91" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="E91" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="F91" s="24" t="s">
         <v>397</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="D92" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="F92" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="D93" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="F93" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="D94" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="F94" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="F94" s="24" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="C95" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="D95" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="E95" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="F95" s="24" t="s">
         <v>412</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B96" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="C96" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="D96" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="E96" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="F96" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="F96" s="24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="C97" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="D97" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="E97" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>418</v>
-      </c>
       <c r="F97" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B98" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C98" s="24" t="s">
+      <c r="D98" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="E98" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="F98" s="24" t="s">
         <v>424</v>
-      </c>
-      <c r="F98" s="24" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C99" s="24" t="s">
+      <c r="D99" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>423</v>
-      </c>
       <c r="E99" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="D100" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E100" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="F100" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B101" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C101" s="24" t="s">
+      <c r="D101" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D101" s="24" t="s">
-        <v>432</v>
-      </c>
       <c r="E101" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="F101" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B102" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>434</v>
-      </c>
       <c r="E102" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B103" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C103" s="24" t="s">
+      <c r="D103" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="E103" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="F103" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="24" t="s">
+      <c r="D104" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>437</v>
-      </c>
       <c r="E104" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="D105" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="D105" s="24" t="s">
+      <c r="E105" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="E105" s="24" t="s">
+      <c r="F105" s="24" t="s">
         <v>443</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="D106" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="E106" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="F106" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="D107" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="E107" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="F107" s="24" t="s">
         <v>452</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D108" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="B108" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>455</v>
-      </c>
       <c r="E108" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F108" s="24" t="s">
         <v>452</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="B109" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D109" s="24" t="s">
+      <c r="E109" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="E109" s="24" t="s">
+      <c r="F109" s="24" t="s">
         <v>458</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D110" s="24" t="s">
+      <c r="E110" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="E110" s="24" t="s">
-        <v>462</v>
-      </c>
       <c r="F110" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="D111" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E111" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="E111" s="24" t="s">
+      <c r="F111" s="24" t="s">
         <v>464</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D112" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B112" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D112" s="24" t="s">
+      <c r="E112" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="F112" s="24" t="s">
         <v>468</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D113" s="24" t="s">
+      <c r="E113" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="F113" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D114" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D114" s="24" t="s">
+      <c r="E114" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="E114" s="24" t="s">
-        <v>476</v>
-      </c>
       <c r="F114" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D115" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="B115" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D115" s="24" t="s">
+      <c r="E115" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="E115" s="24" t="s">
-        <v>479</v>
-      </c>
       <c r="F115" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="D116" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="E116" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="E116" s="24" t="s">
+      <c r="F116" s="24" t="s">
         <v>484</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="D117" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E117" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F117" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="C118" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="D118" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="E118" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="E118" s="24" t="s">
+      <c r="F118" s="24" t="s">
         <v>492</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D119" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B119" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="D119" s="24" t="s">
+      <c r="E119" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="F119" s="24" t="s">
         <v>496</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="D120" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E120" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="E120" s="24" t="s">
+      <c r="F120" s="24" t="s">
         <v>499</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="D121" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E121" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="F121" s="24" t="s">
         <v>501</v>
-      </c>
-      <c r="F121" s="24" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="C122" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="D122" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="E122" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="F122" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="F122" s="24" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B123" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C123" s="24" t="s">
+      <c r="D123" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="E123" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="F123" s="24" t="s">
         <v>512</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="C124" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="D124" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="E124" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="E124" s="24" t="s">
+      <c r="F124" s="24" t="s">
         <v>518</v>
-      </c>
-      <c r="F124" s="24" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="B125" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C125" s="24" t="s">
+      <c r="D125" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="E125" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="F125" s="24" t="s">
         <v>523</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="B126" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C126" s="24" t="s">
+      <c r="D126" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="E126" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="F126" s="24" t="s">
         <v>528</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="D127" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="F127" s="24" t="s">
         <v>531</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B128" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C128" s="24" t="s">
+      <c r="D128" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="E128" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="E128" s="24" t="s">
+      <c r="F128" s="24" t="s">
         <v>536</v>
-      </c>
-      <c r="F128" s="24" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C129" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B129" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C129" s="24" t="s">
+      <c r="D129" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="E129" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="F129" s="24" t="s">
         <v>541</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="D130" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="E130" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="E130" s="24" t="s">
+      <c r="F130" s="24" t="s">
         <v>544</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C131" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="B131" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C131" s="24" t="s">
+      <c r="D131" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="E131" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="E131" s="24" t="s">
+      <c r="F131" s="24" t="s">
         <v>549</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="D132" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E132" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F132" s="24" t="s">
         <v>551</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="D133" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E133" s="24" t="s">
+      <c r="F133" s="24" t="s">
         <v>554</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="D134" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E134" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="E134" s="24" t="s">
+      <c r="F134" s="24" t="s">
         <v>557</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="C135" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="D135" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="D135" s="24" t="s">
+      <c r="E135" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="E135" s="24" t="s">
+      <c r="F135" s="24" t="s">
         <v>563</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="D136" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E136" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="F136" s="24" t="s">
         <v>565</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="D137" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E137" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="E137" s="24" t="s">
+      <c r="F137" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="D138" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E138" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="F138" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="F138" s="24" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D139" s="24" t="s">
-        <v>434</v>
-      </c>
       <c r="E139" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="F139" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6269,7 +6287,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6280,93 +6298,79 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="31">
-        <v>51.1</v>
+      <c r="A2" s="31" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32">
-        <v>51.2</v>
+      <c r="A3" s="32" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32">
-        <v>51.3</v>
+      <c r="A4" s="32" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32">
-        <v>51.4</v>
+      <c r="A5" s="32" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32">
-        <v>51.5</v>
+      <c r="A6" s="32" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32">
-        <v>51.6</v>
+      <c r="A7" s="32" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32">
-        <v>51.7</v>
+      <c r="A8" s="32" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32">
-        <v>51.8</v>
+      <c r="A9" s="32" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32">
-        <v>52.1</v>
-      </c>
+      <c r="A12" s="32"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32">
-        <v>52.2</v>
-      </c>
+      <c r="A13" s="32"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32">
-        <v>52.3</v>
-      </c>
+      <c r="A14" s="32"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="32">
-        <v>52.4</v>
-      </c>
+      <c r="A15" s="32"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32">
-        <v>52.5</v>
-      </c>
+      <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
-        <v>585</v>
-      </c>
+      <c r="A17" s="32"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
-        <v>586</v>
-      </c>
+      <c r="A18" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -6394,26 +6398,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/public/Logbook.template.xlsx
+++ b/public/Logbook.template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
@@ -2303,7 +2303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2463,6 +2463,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2819,7 +2831,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2956,7 +2968,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="57"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -2979,7 +2991,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -3002,7 +3014,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="16"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -3025,7 +3037,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="58"/>
       <c r="M7" s="17"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -3049,7 +3061,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="58"/>
       <c r="M8" s="17"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -3072,7 +3084,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="17"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -3095,7 +3107,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="17"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -3118,7 +3130,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="17"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -3141,7 +3153,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="17"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -3164,7 +3176,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="17"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -3187,7 +3199,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="17"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -3210,7 +3222,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="58"/>
       <c r="M15" s="17"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -3233,7 +3245,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="17"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3256,7 +3268,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="17"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -3279,7 +3291,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="17"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -3302,7 +3314,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="58"/>
       <c r="M19" s="17"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -3325,7 +3337,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="17"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3348,7 +3360,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="17"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -3371,7 +3383,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="17"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -3394,7 +3406,7 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="17"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3417,7 +3429,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="17"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3440,7 +3452,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="58"/>
       <c r="M25" s="17"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -3463,7 +3475,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="17"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -3486,7 +3498,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="17"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -3509,7 +3521,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="L28" s="58"/>
       <c r="M28" s="17"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -3532,7 +3544,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="17"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -3555,7 +3567,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="17"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3578,7 +3590,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="17"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -3601,7 +3613,7 @@
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="L32" s="58"/>
       <c r="M32" s="17"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -3624,7 +3636,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="17"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -3647,7 +3659,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="L34" s="59"/>
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
